--- a/Dissertation/NumCellsInWoundAndTimeTakenResults.xlsx
+++ b/Dissertation/NumCellsInWoundAndTimeTakenResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="1640" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="17340" windowHeight="17540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20-25%" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="128">
   <si>
     <t>Run</t>
   </si>
@@ -694,8 +694,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -868,7 +954,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -876,6 +962,49 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -883,6 +1012,49 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1160,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3391,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5417,6 +5589,7 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5424,8 +5597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J33:J34"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7227,6 +7400,7 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7234,8 +7408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8329,26 +8503,26 @@
         <v>50</v>
       </c>
       <c r="C32" s="48">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D32" s="48">
         <v>113</v>
       </c>
       <c r="H32" s="18">
         <f t="shared" si="4"/>
-        <v>611.5</v>
+        <v>111.5</v>
       </c>
       <c r="I32" s="18">
         <f t="shared" si="5"/>
-        <v>140.99709216859759</v>
+        <v>0.42426406871192845</v>
       </c>
       <c r="J32" s="18">
         <f t="shared" si="6"/>
-        <v>470.50290783140241</v>
+        <v>111.07573593128807</v>
       </c>
       <c r="K32" s="19">
         <f t="shared" si="7"/>
-        <v>752.49709216859765</v>
+        <v>111.92426406871193</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8956,6 +9130,7 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8963,8 +9138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9092,7 +9267,9 @@
       <c r="N3" s="11"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9137,7 +9314,9 @@
       <c r="N4" s="13"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="8">
+        <v>24</v>
+      </c>
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -9186,7 +9365,9 @@
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <v>141</v>
+      </c>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -9231,7 +9412,9 @@
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <v>223</v>
+      </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -9276,7 +9459,9 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <v>321</v>
+      </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -9321,7 +9506,9 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>376</v>
+      </c>
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -9366,7 +9553,9 @@
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -9411,7 +9600,9 @@
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -9456,7 +9647,9 @@
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -9501,7 +9694,9 @@
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9546,7 +9741,9 @@
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -10499,6 +10696,7 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10506,8 +10704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:N26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10633,36 +10831,52 @@
         <v>22</v>
       </c>
       <c r="N3" s="11"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3"/>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="36"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="46">
+        <v>30</v>
+      </c>
+      <c r="D4" s="46">
+        <v>30</v>
+      </c>
+      <c r="E4" s="46">
+        <v>30</v>
+      </c>
+      <c r="F4" s="46">
+        <v>30</v>
+      </c>
       <c r="G4" s="30"/>
       <c r="H4" s="18">
         <f>SUM(C4:G4)/5</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I4" s="18">
         <f>SUM(SQRT(((C4-H4)^2)+((D4-H4)^2)+((E4-H4)^2)+((F4-H4)^2)+((G4-H4)^2))/5)</f>
-        <v>0</v>
+        <v>5.3665631459994954</v>
       </c>
       <c r="J4" s="18">
         <f>SUM(H4-I4)</f>
-        <v>0</v>
+        <v>18.633436854000504</v>
       </c>
       <c r="K4" s="19">
         <f>SUM(H4+I4)</f>
-        <v>0</v>
+        <v>29.366563145999496</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>8</v>
@@ -10670,7 +10884,9 @@
       <c r="N4" s="13"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="8">
+        <v>24</v>
+      </c>
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -10680,26 +10896,36 @@
       <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="C5" s="26">
+        <v>221</v>
+      </c>
+      <c r="D5" s="26">
+        <v>184</v>
+      </c>
+      <c r="E5" s="26">
+        <v>215</v>
+      </c>
+      <c r="F5" s="26">
+        <v>217</v>
+      </c>
+      <c r="G5" s="27">
+        <v>185</v>
+      </c>
       <c r="H5" s="21">
         <f>SUM(C5:G5)/5</f>
-        <v>0</v>
+        <v>204.4</v>
       </c>
       <c r="I5" s="21">
         <f>SUM(SQRT(((C5-H5)^2)+((D5-H5)^2)+((E5-H5)^2)+((F5-H5)^2)+((G5-H5)^2))/5)</f>
-        <v>0</v>
+        <v>7.3190163273489146</v>
       </c>
       <c r="J5" s="21">
         <f>SUM(H5-I5)</f>
-        <v>0</v>
+        <v>197.08098367265109</v>
       </c>
       <c r="K5" s="20">
         <f>SUM(H5+I5)</f>
-        <v>0</v>
+        <v>211.71901632734892</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>9</v>
@@ -10709,7 +10935,9 @@
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <v>144</v>
+      </c>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -10717,26 +10945,36 @@
       <c r="B6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="46">
+        <v>305</v>
+      </c>
+      <c r="D6" s="46">
+        <v>252</v>
+      </c>
+      <c r="E6" s="46">
+        <v>254</v>
+      </c>
+      <c r="F6" s="46">
+        <v>294</v>
+      </c>
+      <c r="G6" s="30">
+        <v>259</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" ref="H6:H13" si="0">SUM(C6:G6)/5</f>
-        <v>0</v>
+        <v>272.8</v>
       </c>
       <c r="I6" s="18">
         <f>SUM(SQRT(((C6-H6)^2)+((D6-H6)^2)+((E6-H6)^2)+((F6-H6)^2)+((G6-H6)^2))/5)</f>
-        <v>0</v>
+        <v>9.9253211534942274</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ref="J6:J13" si="1">SUM(H6-I6)</f>
-        <v>0</v>
+        <v>262.87467884650579</v>
       </c>
       <c r="K6" s="19">
         <f t="shared" ref="K6:K13" si="2">SUM(H6+I6)</f>
-        <v>0</v>
+        <v>282.72532115349424</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="19" t="s">
@@ -10744,7 +10982,9 @@
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <v>261</v>
+      </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -10752,26 +10992,36 @@
       <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="46">
+        <v>376</v>
+      </c>
+      <c r="D7" s="46">
+        <v>33</v>
+      </c>
+      <c r="E7" s="46">
+        <v>332</v>
+      </c>
+      <c r="F7" s="46">
+        <v>342</v>
+      </c>
+      <c r="G7" s="30">
+        <v>312</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="I7" s="18">
         <f>SUM(SQRT(((C7-H7)^2)+((D7-H7)^2)+((E7-H7)^2)+((F7-H7)^2)+((G7-H7)^2))/5)</f>
-        <v>0</v>
+        <v>55.782434511233006</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223.21756548876698</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>334.78243451123302</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="19" t="s">
@@ -10779,7 +11029,9 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <v>414</v>
+      </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -10787,26 +11039,36 @@
       <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="46">
+        <v>394</v>
+      </c>
+      <c r="D8" s="46">
+        <v>354</v>
+      </c>
+      <c r="E8" s="46">
+        <v>342</v>
+      </c>
+      <c r="F8" s="46">
+        <v>363</v>
+      </c>
+      <c r="G8" s="30">
+        <v>329</v>
+      </c>
       <c r="H8" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>356.4</v>
       </c>
       <c r="I8" s="18">
         <f>SUM(SQRT(((C8-H8)^2)+((D8-H8)^2)+((E8-H8)^2)+((F8-H8)^2)+((G8-H8)^2))/5)</f>
-        <v>0</v>
+        <v>9.8411381455601976</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>346.55886185443978</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>366.24113814556017</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="19" t="s">
@@ -10814,7 +11076,9 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>475</v>
+      </c>
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -10822,26 +11086,36 @@
       <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="46">
+        <v>427</v>
+      </c>
+      <c r="D9" s="46">
+        <v>385</v>
+      </c>
+      <c r="E9" s="46">
+        <v>395</v>
+      </c>
+      <c r="F9" s="46">
+        <v>427</v>
+      </c>
+      <c r="G9" s="30">
+        <v>361</v>
+      </c>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="I9" s="18">
         <f>SUM(SQRT(((C9-H9)^2)+((D9-H9)^2)+((E9-H9)^2)+((F9-H9)^2)+((G9-H9)^2))/5)</f>
-        <v>0</v>
+        <v>11.356055653262711</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>387.64394434673727</v>
       </c>
       <c r="K9" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>410.35605565326273</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="19" t="s">
@@ -10857,26 +11131,36 @@
       <c r="B10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="18">
         <f>SUM(C10:F10)/4</f>
         <v>0</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="18" t="e">
         <f>SUM(SQRT(((C10-H10)^2)+((D10-H10)^2)+((E10-H10)^2)+((F10-H10)^2))/5)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="19" t="s">
@@ -10892,26 +11176,36 @@
       <c r="B11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="18" t="e">
         <f>SUM(SQRT(((C11-H11)^2)+((D11-H11)^2)+((E11-H11)^2)+((F11-H11)^2)+((G11-H11)^2))/5)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="19" t="s">
@@ -10927,26 +11221,36 @@
       <c r="B12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="18" t="e">
         <f>SUM(SQRT(((C12-H12)^2)+((D12-H12)^2)+((E12-H12)^2)+((F12-H12)^2)+((G12-H12)^2))/5)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="18" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="19" t="s">
@@ -10962,26 +11266,36 @@
       <c r="B13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="C13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="14" t="e">
         <f>SUM(SQRT(((C13-H13)^2)+((D13-H13)^2)+((E13-H13)^2)+((F13-H13)^2)+((G13-H13)^2))/5)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="15" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="15" t="s">
@@ -11454,7 +11768,7 @@
         <v>276</v>
       </c>
       <c r="I30" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(SQRT(((C30-H30)^2)+((D30-H30)^2))/2)</f>
         <v>7.0710678118654755</v>
       </c>
       <c r="J30" s="18">
@@ -11510,7 +11824,7 @@
         <v>279.5</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(SQRT(((C32-H32)^2)+((D32-H32)^2))/2)</f>
         <v>1.0606601717798212</v>
       </c>
       <c r="J32" s="18">
@@ -11934,5 +12248,6 @@
     <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>